--- a/veriler.xlsx
+++ b/veriler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vesacons-my.sharepoint.com/personal/murat_merdogan_vesacons_com/Documents/Desktop/Y210240055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F637F0D2-18B2-4DA6-8914-7DB661E1A6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F637F0D2-18B2-4DA6-8914-7DB661E1A6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E1BCB5-0557-47D1-A3DB-A064685B8A29}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19130" windowHeight="10820" xr2:uid="{82E03871-054F-4120-9FCA-CC0FBA8BB797}"/>
+    <workbookView xWindow="70" yWindow="1140" windowWidth="19130" windowHeight="10820" xr2:uid="{82E03871-054F-4120-9FCA-CC0FBA8BB797}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>6</v>
